--- a/打印机.xlsx
+++ b/打印机.xlsx
@@ -19,13 +19,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>北广：打印机斑马105Sl 纸45*55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">皇视：打印机：博思德g3106.纸尺寸；55*40
-序列化贴纸尺寸为50*40mm，一行2个，共4行；
-博思德G-3106，打印贴纸规格，配卡是50*40，不配卡是50*20； 
-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,6 +65,20 @@
   <si>
     <t xml:space="preserve">九州的：
 扫描枪为USB接口 厂家为美利捷MS5145
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">皇视：打印机：博思德g3106.纸尺寸；55*40
+序列化贴纸尺寸为50*40mm，一行2个，共4行；
+博思德G-3106，打印贴纸规格，配卡是50*40，不配卡是50*20；
+打印机采用并口。 
+一维： 
+GZ-GJSMQ0-00003
+ 一维扫描枪/一维,SYMBOL-2208，配PS-II口
+ 二维：
+GZ-GJSMQ0-00004
+ 二维扫描枪/二维 SYMBOL-6708 配PS-II口/声宝
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,74 +138,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -211,16 +150,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>457200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>451879</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>299479</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>3248025</xdr:rowOff>
+      <xdr:rowOff>3705225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -243,8 +182,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="714375"/>
+          <a:off x="4648201" y="1238250"/>
           <a:ext cx="3880878" cy="3248025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2085975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>237581</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3057404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2867025"/>
+          <a:ext cx="4352381" cy="971429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -261,10 +238,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="323232"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -546,14 +523,14 @@
   <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:W4"/>
+      <selection activeCell="A2" sqref="A2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:23" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -578,9 +555,9 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" ht="351.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="295.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -634,7 +611,7 @@
     </row>
     <row r="4" spans="1:23" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -661,7 +638,7 @@
     </row>
     <row r="5" spans="1:23" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -688,7 +665,7 @@
     </row>
     <row r="6" spans="1:23" ht="128.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -871,19 +848,19 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="1" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:1" s="1" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -926,6 +903,37 @@
     <row r="43" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A37:XFD37"/>
+    <mergeCell ref="A38:XFD38"/>
+    <mergeCell ref="A39:XFD39"/>
+    <mergeCell ref="A40:XFD40"/>
+    <mergeCell ref="A41:XFD41"/>
+    <mergeCell ref="A42:XFD42"/>
+    <mergeCell ref="A36:XFD36"/>
+    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A27:XFD27"/>
+    <mergeCell ref="A28:XFD28"/>
+    <mergeCell ref="A29:XFD29"/>
+    <mergeCell ref="A30:XFD30"/>
+    <mergeCell ref="A31:XFD31"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="A33:XFD33"/>
+    <mergeCell ref="A34:XFD34"/>
+    <mergeCell ref="A35:XFD35"/>
+    <mergeCell ref="A24:XFD24"/>
+    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A14:XFD14"/>
+    <mergeCell ref="A15:XFD15"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="A22:XFD22"/>
+    <mergeCell ref="A23:XFD23"/>
     <mergeCell ref="A12:XFD12"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A2:XFD2"/>
@@ -938,37 +946,6 @@
     <mergeCell ref="A9:XFD9"/>
     <mergeCell ref="A10:XFD10"/>
     <mergeCell ref="A11:XFD11"/>
-    <mergeCell ref="A24:XFD24"/>
-    <mergeCell ref="A13:XFD13"/>
-    <mergeCell ref="A14:XFD14"/>
-    <mergeCell ref="A15:XFD15"/>
-    <mergeCell ref="A16:XFD16"/>
-    <mergeCell ref="A17:XFD17"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="A22:XFD22"/>
-    <mergeCell ref="A23:XFD23"/>
-    <mergeCell ref="A36:XFD36"/>
-    <mergeCell ref="A25:XFD25"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A27:XFD27"/>
-    <mergeCell ref="A28:XFD28"/>
-    <mergeCell ref="A29:XFD29"/>
-    <mergeCell ref="A30:XFD30"/>
-    <mergeCell ref="A31:XFD31"/>
-    <mergeCell ref="A32:XFD32"/>
-    <mergeCell ref="A33:XFD33"/>
-    <mergeCell ref="A34:XFD34"/>
-    <mergeCell ref="A35:XFD35"/>
-    <mergeCell ref="A43:XFD43"/>
-    <mergeCell ref="A37:XFD37"/>
-    <mergeCell ref="A38:XFD38"/>
-    <mergeCell ref="A39:XFD39"/>
-    <mergeCell ref="A40:XFD40"/>
-    <mergeCell ref="A41:XFD41"/>
-    <mergeCell ref="A42:XFD42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
